--- a/Testdata/TC_Unit Manipulation_10.xlsx
+++ b/Testdata/TC_Unit Manipulation_10.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ozUAAB+LCAAAAAAAAAPtW1tv48YV/iuEnhKg8pCSvZadWQayZLtCdTEsObvOy4IiRzZrilR5sa239KEIkF6AokmA9Io8FA0CNN2HtNjuFu1/Cdbe9Kl/oWcuJIcUtRa9LtoCXhhYzbnM5cyZc74zGuF3L6eOck78wPbchxVtTa0oxDU9y3ZPHlaicFLVHlTe1fHupUmcA8M3piQEYQW03GD7MrAfVk7DcLaN0MXFxdpFfc3zT1BNVTX0uNcdmqdkalRtNwgN1ySVRMu6Waui45Y17ZHQsIzQ4JoPK51hZ61FbLMNtJ7hGifEX9uJAtslQbDrhnZok4Bq+sQISavde48vTK+tPVjTMFqgp5I7ke1YXC4jyelCDoYlI3tK9JpaU6tararWR5q6Xd/c3qitbW5tvR8rJoK4awThkPjntskIw9CYzpi6VlPrmlrf3KhhVCgEfaUG0PHAsQ7JuR0Qq0UcJyhlESQ2sGmGsOpyxlQxknRFR7efwr5vzE5HduiQsup7nk9MMNStxu6Ti4Ev7DeadYE7OrX9cN425qX7OgqIP5hRa5RT1XHbc8OmQ/zwaAabSizYc2DooR8RjJYwU6W2HZjw2XYjYukTwwlkpQwTP/L8s2BmmKQPBxbRPi5cxzMs8KzQDkLbTAddYOAD35tBjzD4judYe9CrEC5gJD13XDAxHXbH887S2RUxMfMB5g2wp1MjjMUX6Hh46l0MXGc+jMaB6dtjYrV3YulCHqYnT2i3oiD0pjCLlIQ5TaLM4R+ctDwZt4lpTw3nwAEjBnodeskQcDMKvYkdtjwnmrpBPKccFT+CFY3IZbLCpI0HsLkuNbrndtxYnpu5kJVVOPQukjEXGcwIErkZmPF2LzLywm2gxdu3yGE7Qle5ZzuQCOS9kKhZrxieEhIWugTnYBrz9mhq0XfmdEyMUgoGzwTvBqpOE0SV/Y1UdZv9wcgJG++6lpDTWHCuy3IxE/ej6WAMJ/icrUnXgJcjYViFs+MY7hlQH9nhab8Zz76Ag/mal8ov8jCc1ZljzBk5sYtMwx3XdCKL8BDQcSfMKenc+DYuZeMFUhdOtY4Ndz6azyDkBvZ2CB8eViAJbwehD2m+opte5Ib+nMYKjIToTTpBNHbZAIazss7EJz+IAF3M9yLXbHnW6qNZ3DpHrh2uPkMv8nkAXF2FWY/GwihoExpVWJhfWd8ss6bALyU+dcnUc21zdWuDkensrVssJIhP1coahJ+vleUdyOQ80dGzvrKaD9AQUlupYZpB4Jk2c1ZxPCxJHy05Mm0yMSIHYFkISfUkibZ5Mm4GZ3kZmYSPfCeOeToFvQGgXtOarpkAFyiyWzO9KSUgAJuPhhjJ8hTzmGTXPeka7kkEqCKJK3l6EnFpRhz5hhvQ5SQgIhd8i4VwHKc4uNF58BpEzBF48PKAi1FODo/IdOb5htMDw9h7wu0EQgLw0TPCU9GCbOYQMzYySlUTrezM4onfJMbSEl8GPfAiTOaITIiuhePrVCalYbrKHhxLp2U49tjnUTVO3kU82LAUDsbxly6uJDSM9wBqLMi33yNzCrzThqAzl9ViBndgGkj14eF6o7ahbmwAlqFtzFa8752HCqBeAqhQqSoj41J5R+m4ln1uW5HhwEdwPlgZN49IQaU0ZR28F8d3NoUmzDNLyQoAsjixIX0sCiacVEE/JobvzCVBvsSuZ4Lc9cf/uHr+6+uP/3L1o99XX33xs6uPPv/X33758tmXL58/51S+Ri6NR8bYIWxGo51GQ62vg4MlJEytihgKtiIzZLTjYwZ+kzYWxRprtHY7rf3uDgskCTFW57kE0Tpw7kVpc8hXwQZie4liF+Ai+igOTKKd4Uq5Sad12TnJSsv8ZYrcFq9e/OHViz8u1RYGS0GWtrXVYIXvzRhMW5BLMFg3E/yp8HpV3ajWapJwTgYf8sif2Klj6VA/b6napqolQdxKvLhIKM8SPY2ME5TT46QWx0WJC8jtmMk8f0SCMGHzsyA1hI/++cff/umTjJSwrqBke4HJMfxCB0Nxg3XdPxwpw8HRYWtXGe0OqZ+kPEmOd/4aYTF6cqAyTuW6cMq/o0BWhyymVKD4qSjeRCGGearM4ShKBzHjbEVUPtAtu8zPct/3ohnfEUkhpRZIJuGkUKMg2DAes+dC1ElZBeJ8rld//bpIQSyknSJZ/bC3o0zdxC8ZDWc4nCTxxan97O8vn31Ig9vTn189+2GmBzFOcgMAfg6nSW4mbg8hTySaHAU/GjJjnqlPpMQiiLSCOvBsNwx0bZ0VT6KFQVWjvbH/cWcKuY51zOwF9BwFf9cIdi9DcbD1PkZZAsxzZkCa9dIyMyHwGJ7a9Z+/+e31r76+/vTptx9+efXRF1c/+fTVi999+9Xn/NRdf/L0+qdfiSifTwRsLrR45ehPYVchpkJPo0KTtvLNB79QXC9UAGsoEYtI33zwmdQZnShDJWnPgOWSiWSnsCAqK1M9RZpKMoeMXqLCM3+LprB6IiGSmDezzXSQ96u0K3ruGOOtzqgaBUTxAEa9DSvJCqfKq+oJFZ5SDzbVmlYTXD4buoSxEUim33e8McCImMHuGnIiGa3XK6SybLz97mCn2U1F+CQGvkV86ob8A+4EMZqM3UuiABdQnhk59EpoQWyRheNPUuhC4m5l0rRoyNPVovuLjARuRb7PUZAr7uSH0QyQb3wDt5zPbiUlsNvnwFSGv2m7087yoS1xIfll2ZTA+CwcCRYPTZ2AXuNw7NqnpkmbwMvcZII5xLU7R1eAJImPaKzZ9X3PLww4KScW6wFshiiCUosnMogOySG2le5VTIiD3D3Uvofa91D7HmrfQ+17qL0C1C5QLI+wteUIW3syWVcNc6MBuGBCrOq6pjaqW40Hm1XT3KxrG1ptszYx/wvgO96sgi8Zls5h9ax0m31/nSsWbOVdR9I3ztmvD6Y3BLmbazb0mh27r6TuK6m7rqS0pJKKkXjA7/pz3wBAMLL0o35n9KTX7HcOjrrNUWdAawWKIKSExkWOuqPOQbeze/hWz3YcoL+j8GInZLZSpvQ7hplj00dI1JVsVwlPiRLBkVdcWMDb9CsaKUumb5b45JK2QPMQBU5I2Et6jUH9e4YTEb0H8+SfGFbVW4P+cNTsQ3IXXx7luiwawZjNHJY3lg2y1+wOd8uNg+RlcVSbr00karJBacBs+nZ4Ch3Y5mBG+FcZAUTWBblEldaAqZJSpMXKxHyVLaKUxxXIbasuxGsQlAnDKJdx8u04IMp0JBUzSKpPUFE1gjLlB3rjUgMtLRGWc+KZpvmq8B6hIJ0Vyi0rDAqFby4M8mieUVbH+iiT99Ailk9JaClMRwtYHBWj4yXkBZXE/QuJRV6VYJZCYjyAhCERhyxoEXGiu7m7RTJMU98IKa4OHpBEQIvJPEtCmeyL8plWJiApLaKCJJijoWwWQyIqof+3Oz8x9v/ypR+6zTUfurvbPCmxtO3J5BiQ5eP0SVVM4DNOe6ENnlMXsAqSwIzkG+Ld1d06y91BnqLO7y+fy14+r16L/0fupVH6eCTFTW3iAMwr+0Q51u5557fWBbcoq9oJBo4l7Fzu/UtilrQD+cE49aGyk2n6PuAO+sK09Avvru2edcqtXjc3oKRvgMtskLFatxoTo1EzNh+QTa22sUWrON4prRFoF1NAh/QxUblBNBq1ZPX04deh4Z6U7I0bmCnSx1FgKXZWRZmctPGe7QfhYwoNxCdOOU4oxxxOPtbFbxke8/axXt/gBBBA8mAoM+s49IT8twWe07WndskHVGocn7KdgBvMZhwdlt3QVrvXJ5chRlIPgCTG3wfQwl8clumNnyooixL9uK9hNC7dHYqVD4BPHet22rsWgM7ba7OX+rbzBhNgUPO2XXTcwD45Dcvuq2pqNWtsblXHVm1cXbca69XGVoNUtfUH61ubxlZtrK7TJ9aic0gcNrkoOQhNN3YQGU55PZT7qZX+b+4n20KjNQAA</t>
+          <t>PTYAAB+LCAAAAAAAAAPtW1lz2zgS/issP2UeZJCyYktehFM67KxmdbgseZLsSwoiIQlrEtTysK1/vw2AB0hRieh4dh/WLldZ6ANHo9H9NQTj3198z3iiYcQC/unMOjfPDMqdwGV88+ksidct6/LsdxvfvDjUuyMh8WkMwgZo8ej6JWKfzrZxvLtG6Pn5+fz54jwIN6htmhb6Op0snC31SYvxKCbcoWe5lvtzrTMbD11/SmPikpgozU9n48X4fEiZMwLalHCyoeH5IIkYp1F0w2MWMxoJzZCSmA5H0z/Vwuz2+eW5hdEBvZAcJMxzlVxJUtFTORiWLplP7bbZNlvmVcu6WJpX1+3udefi/Kpz9c9MMRfEExLFCxo+MUcSFjHxd1LdvLIuzKt2t3OBUa0Q9FUYwMZzz72nTyyi7pB6XtTIIijdwL4Tw6qbGdPESNNNO3r9FD6HZLddstijTdVvg5A6YKhXjT2jz/Mwtd9yNwHucsvCeD8i+8Z9PUQ0nO+ENZqp2ngU8Ljv0TB+2MGmUhf2HBh2HCYUoyPMQmnEIgc+M55Q114TL9KVSkz8JQgfox1x6AwOLBJ9PHMvIC54VsyimDnFoAcMfBcGO+gRBh8EnnsLvabCNYy85zEHE4thB0HwWMyujomlD0hvgD31SZyJH9DxYhs8z7m3XySryAnZirqjQSZdy8Pi5KXawySKAx9mUZCwommU6RTt4QcOW5WDR9RhPvHuPLBjZMMxLRNwP4mDNYuHgZf4PMqmVaHiL7CoJX3JF5m38Rz2lwu7B3zMM3ll6VpWWeE+eM7HPGRIO2jkfuRkO37IqAqPgJbt4CFHbopY5S3zIBfo26FRy46x2FIa13qF4mAR9m5FdrEHezEmRgUFg3OCgwPVFjmiJX+Xpnktf2HknI1vuJvKWWbLarcudLmMiWeJP1/BIX6Sa7It4FVIGFbhDTzCH4H6hcXbWT+bfQ0HqzUflT/kYTiuO4/sJTm3i07DY+54iUtVFBjztXRKMTe1jUfZ+IA0gYNtY8L3y/0Oom7ErmP48OkM8vB1FIeQ6c9sJ0h4HO5FuMAoFf2ZTpSsuByAeCfrrEP67wQAxv424c4wcE8fzVXWeeAsPn2GQRKqGHi6irSeCIdJNKIisMhIf7K+02RNUdhI3OfUDzhzTrc2GFnM3n3FQqLsVJ2sQdX5Olneg2Sucp046yerhYAOIbs1GqYfRYHDpLOmx8PV9NGRIzOia5J4gMxiyKubPNpWybgfPVZldBJ+CL0s5tkC90YAfB3XP3cAMQhwd+4EviAgwJtfFhjp8gL2OPSGbyaEbxIAFnlcqdLziCuS4jIkPBLLyXFEJfjWC+EsTil8Y6vgNU+kI6jgFQAXo4ocXlJ/F4TEm4Jh2G3qdilIAvwxJfE2bUE286iTGRkVqrlWeWbZxH8mJtOSWoY48GmYrBClkFiLgtiFTEHDYpVTOJbekHhsFaqomiXvOh5sWIEIs/grFtcQHWZ7AGUW5Nt/0L3A3kUjpUuXtTKGcmARSO3Ffad7BeVEG7CMaGO54g+j4W+A29xEGu3amDCIv2tGXWMGIQ7saXwm0bUxnQ6WD5AGpZHSRPQKfV0T32axXk5nCi5bIpT5ADI2DDLJgVzOKOTtKUDPrbfXJNVqJ4EDgh/g5AU74555LFJzf4TAIOZp9D3iG0PCwtKKlRpekpVH5dSWg26327sCp8tJWFgaSXAsbCFp49FMguKcgNMiTjaGN+Ph3f1URpecmOmrBINEfbgPkqK5UOuRI8kNRplfKBF7mEWrtF3iagnL1guCso4udUxdmUQz5NEuUuOVMNrliRitLTCaWYvRJqXkkBbc0GlPE67I4HuVGXKTjaGg/9ix2hem2c6DvJv7d51QlZX2tCQbVNFTpKHCTak7iJNXtDOmPA1j7gZw3hnJZdQh0RrKkvWCqZVTSo0QzFSCHTEyyhpyiBGDujmG0BlT4zPlVJzZYG3MmWcQ7opjAbYpxDVVNajQf5T6xh+Q4qX+lPE9eTRcwuWxGiQ+0ztJZ5ufTt3jDs9uyR/rqKq7HypWR/wcBsnuIO4U1BrJ2gh0yK1oSpsdTq3g1ciryQ4SyKGE1ymlqxkVkNeezgyIV0a8zX1UknGVqaiaiOrrjyQmUuaerZJSF+lY+Y0BOD0cLb2ZnwGIhWlWqlDwl4W06qP5XctCKVGUW3cB43Fkdzuy0kpbGFQt0Zv8i8c+JEbZsbQb0CsU/HcS3bzE6Sm3IfaWCTDPHQE3DYqaNCeo4F7YFprUM8aj8/vBwLQ618aRPGGUkkmaEKo5Q85Ofjro8UdZ0/igx2i9c7EUqVmMlM3PuIETvBGnrSqh69hSaq/NoaSQyyrgMIRs173KJdJ8F+yYU/S+kDEgH73CLaSzkRcy5miCqYzKr3fdy96FlXLVeAIcrUhEayIhLIP6LPGNTEbeS1SkSx2crFuoqRA+G81nN4txv5BSs5uHEPiET6oPeBxlODTzNY0CXMCHDpzvmB6KHbJw9kkLaCi9lVn3XXEXb5t1Nx8lCTxMwlChJp5e6C+SHWDm/OLluIC809Rw8kxhWh05F+3xqMyHtsaFvFhmC4Lky9CUslSYGkfiBkjB3pmwTdEEXukeFOyRXtorEPbEYB+QiDw3YRiEteGn4GRiU0DcEFNQYfJcBokhFTp3i83KCFnIe0fp7yj9HaW/o/R3lP6O0mtQumXKH4m0fV4H1asS/wW8bh3H69Z3ajqu07GsltVddVodyyEtsuo6LchRvd7qivSuSOd/AOWzjaz5fuPoHE7OZK9yiR+5aX0R9tbB9o0S/o+j7inR8Of1IPrB/r1Xae9V2l9apVl5lZaB/Eh9A1H5XgLilGs/zMbL79P+bHz3MOkvx3NRhgjwoWU7JfIwWY7vJuOb+w9T5nlA/5uh6qjYCLi3N3zxzcfOY+J1FA9ig3EIBdRIIBQYHNbwm/jiSEuhxWMqNbm8nRYKEB02NJ7mvWb1wp/ESyAQwTzVJwl57eF8tlj2Z0vYLPWVVqXLuhHIbufJlHJskNv+ZHHTbBykL0th42rZo1HzDSpiaT9k8RY6YM58R9UXLIB8DuVyVVFeFkpGnZasQKsVfBqyAqVAX1vQIVXToFJ4RpVkVG1n0VGnI604QlqZg+qKGlQqYtAvFyzoaIlxnJPNtMhjtXcUNWmuVu5YTVEr/POaoloISMrpZQIqZUJ0WAEUJHQU1KMDmI7qofMR8oFK7v61xDqvyuFMLTEbQIOXSKEZdIhJ0dtcEiMdwZm/BCJPRxJII6DDvF0moVLiRdUkqxOQli9RTXas0FA5kaE0KqH3+8Q3v09Er7lBRG93UagllhFbr78BAP5aPPTKCGrGRS+ioXLqAVZBGpjRfCN9Dfa2zvJ2kKeu8/8vR3yTi+3T6/S/5M4bFW9aCuA0oh7gvKaPpzPtafD0al3wi6aq42juuamdmz3Lyc1SdKA/ZRc+1HQy/TAE4CEevjZ+ez5h/HHcbPV2u911qLu+pCbpUFFD9ujHtkN73Y9t+HEBTclORZEguvABHoo3Ts0GsUTY0tWL92j3hG8a9qYMLBXFmy2wlLokBSXxXitr41sWRvFXgQ3ST4ryLad8U3jyq91WoPGran+zux8VAQSQPhgqzTqLPbH6r4fAmzCfNXzXZWbxqdwJuMFup+Bh0w0djqYz+hJjpPUAUGL1L0At6iFkk97UqYK6KNfP+lokq8bdoUz5DvjCsV6nfeMC6ny9tvwfAub9wgQk1nxtF2Mesc02brqv1uXK6rZ7buuSdmir07nstnofV26r1yMXXXrpdByzK15+p51D4mD0ueEgIt2wKCFecz1U+Scw+z802N53PTYAAA==</t>
         </r>
       </text>
     </comment>
@@ -39,12 +39,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,23 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,20 +113,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,34 +442,34 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Subnational</t>
         </is>
@@ -454,105 +478,105 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>RMB mn</t>
+          <t>MN BTU th</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>RMB mn</t>
+          <t>1000000 BTU mn</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Series ID</t>
         </is>
       </c>
-      <c r="B8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="C8" s="3">
-        <v>310901701</v>
+      <c r="B8" s="5">
+        <v>254123002</v>
+      </c>
+      <c r="C8" s="5">
+        <v>254123002</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>SR Code</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Mnemonic</t>
         </is>
@@ -561,7 +585,7 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Function Description</t>
         </is>
@@ -574,300 +598,850 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>First Obs. Date</t>
         </is>
       </c>
-      <c r="B12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="C12" s="4">
-        <v>36130</v>
+      <c r="B12" s="6">
+        <v>38718</v>
+      </c>
+      <c r="C12" s="6">
+        <v>38718</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Last Obs. Date</t>
         </is>
       </c>
-      <c r="B13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="C13" s="4">
-        <v>40878</v>
+      <c r="B13" s="6">
+        <v>41244</v>
+      </c>
+      <c r="C13" s="6">
+        <v>41244</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Last Update Time</t>
         </is>
       </c>
-      <c r="B14" s="5">
-        <v>41781</v>
-      </c>
-      <c r="C14" s="5">
-        <v>41781</v>
+      <c r="B14" s="7">
+        <v>43839</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43839</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Series remarks</t>
         </is>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Suggestions</t>
         </is>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
       <c r="B17" s="2">
-        <v>1231.927</v>
+        <v>93374.63980350002</v>
       </c>
       <c r="C17" s="2">
-        <v>1231.927</v>
+        <v>93.37463980350003</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
       <c r="B18" s="2">
-        <v>196242.7157566667</v>
+        <v>67588679.72409233</v>
       </c>
       <c r="C18" s="2">
-        <v>196242.7157566667</v>
+        <v>67.58867972409232</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Standard Deviation</t>
         </is>
       </c>
       <c r="B19" s="2">
-        <v>442.9929071177852</v>
+        <v>8221.233467314521</v>
       </c>
       <c r="C19" s="2">
-        <v>442.9929071177852</v>
+        <v>8.221233467314519</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Skewness</t>
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.4639651794892382</v>
+        <v>0.5786993566761636</v>
       </c>
       <c r="C20" s="2">
-        <v>0.4639651794892382</v>
+        <v>0.5786993566761582</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Kurtosis</t>
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-0.8990137168045287</v>
+        <v>-0.2909755924600841</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.8990137168045287</v>
+        <v>-0.2909755924600885</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Coefficient Variation</t>
         </is>
       </c>
       <c r="B22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654154</v>
       </c>
       <c r="C22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654152</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
       <c r="B23" s="2">
-        <v>727.63</v>
+        <v>80465.44901</v>
       </c>
       <c r="C23" s="2">
-        <v>727.63</v>
+        <v>80.46544901</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
       <c r="B24" s="2">
-        <v>2026.83</v>
+        <v>112482.41951</v>
       </c>
       <c r="C24" s="2">
-        <v>2026.83</v>
+        <v>112.48241951</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Median</t>
         </is>
       </c>
       <c r="B25" s="2">
-        <v>1181.145</v>
+        <v>92555.497445</v>
       </c>
       <c r="C25" s="2">
-        <v>1181.145</v>
+        <v>92.555497445</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>No. of Obs</t>
         </is>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
-        <v>37226</v>
-      </c>
-      <c r="B27" s="8">
-        <v>791.02</v>
-      </c>
-      <c r="C27" s="8">
-        <v>791.02</v>
+      <c r="A27" s="10">
+        <v>38718</v>
+      </c>
+      <c r="B27" s="11">
+        <v>102584.6417</v>
+      </c>
+      <c r="C27" s="11">
+        <v>102.5846417</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7">
-        <v>37591</v>
-      </c>
-      <c r="B28" s="8">
-        <v>767.73</v>
-      </c>
-      <c r="C28" s="8">
-        <v>767.73</v>
+      <c r="A28" s="10">
+        <v>38749</v>
+      </c>
+      <c r="B28" s="11">
+        <v>93467.54944</v>
+      </c>
+      <c r="C28" s="11">
+        <v>93.46754944</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7">
-        <v>37956</v>
-      </c>
-      <c r="B29" s="8">
-        <v>727.63</v>
-      </c>
-      <c r="C29" s="8">
-        <v>727.63</v>
+      <c r="A29" s="10">
+        <v>38777</v>
+      </c>
+      <c r="B29" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C29" s="11">
+        <v>98.60701211999999</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7">
-        <v>38322</v>
-      </c>
-      <c r="B30" s="8">
-        <v>922.91</v>
-      </c>
-      <c r="C30" s="8">
-        <v>922.91</v>
+      <c r="A30" s="10">
+        <v>38808</v>
+      </c>
+      <c r="B30" s="11">
+        <v>97395.64367</v>
+      </c>
+      <c r="C30" s="11">
+        <v>97.39564367</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
-        <v>38687</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1126.49</v>
-      </c>
-      <c r="C31" s="8">
-        <v>1126.49</v>
+      <c r="A31" s="10">
+        <v>38838</v>
+      </c>
+      <c r="B31" s="11">
+        <v>92075.12437000001</v>
+      </c>
+      <c r="C31" s="11">
+        <v>92.07512437</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="10">
+        <v>38869</v>
+      </c>
+      <c r="B32" s="11">
+        <v>95232.23819</v>
+      </c>
+      <c r="C32" s="11">
+        <v>95.23223819</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10">
+        <v>38899</v>
+      </c>
+      <c r="B33" s="11">
+        <v>100047.7073</v>
+      </c>
+      <c r="C33" s="11">
+        <v>100.0477073</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10">
+        <v>38930</v>
+      </c>
+      <c r="B34" s="11">
+        <v>95307.24011</v>
+      </c>
+      <c r="C34" s="11">
+        <v>95.30724011</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10">
+        <v>38961</v>
+      </c>
+      <c r="B35" s="11">
+        <v>89917.83798</v>
+      </c>
+      <c r="C35" s="11">
+        <v>89.91783798</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10">
+        <v>38991</v>
+      </c>
+      <c r="B36" s="11">
+        <v>98395.83232</v>
+      </c>
+      <c r="C36" s="11">
+        <v>98.39583232</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10">
+        <v>39022</v>
+      </c>
+      <c r="B37" s="11">
+        <v>98170.13428</v>
+      </c>
+      <c r="C37" s="11">
+        <v>98.17013428</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10">
         <v>39052</v>
       </c>
-      <c r="B32" s="8">
-        <v>1235.8</v>
-      </c>
-      <c r="C32" s="8">
-        <v>1235.8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7">
+      <c r="B38" s="11">
+        <v>98568.94826</v>
+      </c>
+      <c r="C38" s="11">
+        <v>98.56894826</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="10">
+        <v>39083</v>
+      </c>
+      <c r="B39" s="11">
+        <v>95524.24980000001</v>
+      </c>
+      <c r="C39" s="11">
+        <v>95.52424980000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10">
+        <v>39114</v>
+      </c>
+      <c r="B40" s="11">
+        <v>83617.02267999999</v>
+      </c>
+      <c r="C40" s="11">
+        <v>83.61702268000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="10">
+        <v>39142</v>
+      </c>
+      <c r="B41" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C41" s="11">
+        <v>98.60701211999999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10">
+        <v>39173</v>
+      </c>
+      <c r="B42" s="11">
+        <v>87313.59292</v>
+      </c>
+      <c r="C42" s="11">
+        <v>87.31359292</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10">
+        <v>39203</v>
+      </c>
+      <c r="B43" s="11">
+        <v>89092.12278000001</v>
+      </c>
+      <c r="C43" s="11">
+        <v>89.09212278</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10">
+        <v>39234</v>
+      </c>
+      <c r="B44" s="11">
+        <v>83580.49619999999</v>
+      </c>
+      <c r="C44" s="11">
+        <v>83.5804962</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10">
+        <v>39264</v>
+      </c>
+      <c r="B45" s="11">
+        <v>89062.82719</v>
+      </c>
+      <c r="C45" s="11">
+        <v>89.06282718999999</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10">
+        <v>39295</v>
+      </c>
+      <c r="B46" s="11">
+        <v>93159.99709999999</v>
+      </c>
+      <c r="C46" s="11">
+        <v>93.1599971</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="10">
+        <v>39326</v>
+      </c>
+      <c r="B47" s="11">
+        <v>86589.08224</v>
+      </c>
+      <c r="C47" s="11">
+        <v>86.58908224</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="10">
+        <v>39356</v>
+      </c>
+      <c r="B48" s="11">
+        <v>93035.87052</v>
+      </c>
+      <c r="C48" s="11">
+        <v>93.03587052</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10">
+        <v>39387</v>
+      </c>
+      <c r="B49" s="11">
+        <v>91356.15084</v>
+      </c>
+      <c r="C49" s="11">
+        <v>91.35615084</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10">
         <v>39417</v>
       </c>
-      <c r="B33" s="8">
-        <v>1482.71</v>
-      </c>
-      <c r="C33" s="8">
-        <v>1482.71</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7">
+      <c r="B50" s="11">
+        <v>95688.73797</v>
+      </c>
+      <c r="C50" s="11">
+        <v>95.68873797000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="10">
+        <v>39448</v>
+      </c>
+      <c r="B51" s="11">
+        <v>96328.9469</v>
+      </c>
+      <c r="C51" s="11">
+        <v>96.32894690000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10">
+        <v>39479</v>
+      </c>
+      <c r="B52" s="11">
+        <v>98953.75303000001</v>
+      </c>
+      <c r="C52" s="11">
+        <v>98.95375303</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10">
+        <v>39508</v>
+      </c>
+      <c r="B53" s="11">
+        <v>90097.77222</v>
+      </c>
+      <c r="C53" s="11">
+        <v>90.09777222</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10">
+        <v>39539</v>
+      </c>
+      <c r="B54" s="11">
+        <v>82155.80794</v>
+      </c>
+      <c r="C54" s="11">
+        <v>82.15580794</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="10">
+        <v>39569</v>
+      </c>
+      <c r="B55" s="11">
+        <v>90612.21428</v>
+      </c>
+      <c r="C55" s="11">
+        <v>90.61221428</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10">
+        <v>39600</v>
+      </c>
+      <c r="B56" s="11">
+        <v>83468.69955999999</v>
+      </c>
+      <c r="C56" s="11">
+        <v>83.46869956</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="10">
+        <v>39630</v>
+      </c>
+      <c r="B57" s="11">
+        <v>85880.46527</v>
+      </c>
+      <c r="C57" s="11">
+        <v>85.88046527</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10">
+        <v>39661</v>
+      </c>
+      <c r="B58" s="11">
+        <v>88071.95206</v>
+      </c>
+      <c r="C58" s="11">
+        <v>88.07195206</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="10">
+        <v>39692</v>
+      </c>
+      <c r="B59" s="11">
+        <v>86411.6581</v>
+      </c>
+      <c r="C59" s="11">
+        <v>86.4116581</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10">
+        <v>39722</v>
+      </c>
+      <c r="B60" s="11">
+        <v>85863.46357000001</v>
+      </c>
+      <c r="C60" s="11">
+        <v>85.86346356999999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="10">
+        <v>39753</v>
+      </c>
+      <c r="B61" s="11">
+        <v>87911.15601999999</v>
+      </c>
+      <c r="C61" s="11">
+        <v>87.91115602000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10">
         <v>39783</v>
       </c>
-      <c r="B34" s="8">
-        <v>1598.61</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1598.61</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7">
+      <c r="B62" s="11">
+        <v>91789.90822</v>
+      </c>
+      <c r="C62" s="11">
+        <v>91.78990822</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="10">
+        <v>39814</v>
+      </c>
+      <c r="B63" s="11">
+        <v>92030.37178</v>
+      </c>
+      <c r="C63" s="11">
+        <v>92.03037178</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="10">
+        <v>39845</v>
+      </c>
+      <c r="B64" s="11">
+        <v>80465.44901</v>
+      </c>
+      <c r="C64" s="11">
+        <v>80.46544901</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="10">
+        <v>39873</v>
+      </c>
+      <c r="B65" s="11">
+        <v>81558.51788</v>
+      </c>
+      <c r="C65" s="11">
+        <v>81.55851788</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="10">
+        <v>39904</v>
+      </c>
+      <c r="B66" s="11">
+        <v>81657.46119</v>
+      </c>
+      <c r="C66" s="11">
+        <v>81.65746119000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="10">
+        <v>39934</v>
+      </c>
+      <c r="B67" s="11">
+        <v>83308.78529</v>
+      </c>
+      <c r="C67" s="11">
+        <v>83.30878529</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10">
+        <v>39965</v>
+      </c>
+      <c r="B68" s="11">
+        <v>84839.49019</v>
+      </c>
+      <c r="C68" s="11">
+        <v>84.83949019000001</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="10">
+        <v>39995</v>
+      </c>
+      <c r="B69" s="11">
+        <v>90413.66712</v>
+      </c>
+      <c r="C69" s="11">
+        <v>90.41366712</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="10">
+        <v>40026</v>
+      </c>
+      <c r="B70" s="11">
+        <v>85945.56743</v>
+      </c>
+      <c r="C70" s="11">
+        <v>85.94556743</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="10">
+        <v>40057</v>
+      </c>
+      <c r="B71" s="11">
+        <v>84672.43913</v>
+      </c>
+      <c r="C71" s="11">
+        <v>84.67243913</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="10">
+        <v>40087</v>
+      </c>
+      <c r="B72" s="11">
+        <v>85370.54401</v>
+      </c>
+      <c r="C72" s="11">
+        <v>85.37054401</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="10">
+        <v>40118</v>
+      </c>
+      <c r="B73" s="11">
+        <v>86578.4388</v>
+      </c>
+      <c r="C73" s="11">
+        <v>86.5784388</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10">
         <v>40148</v>
       </c>
-      <c r="B35" s="8">
-        <v>1639.54</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1639.54</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7">
+      <c r="B74" s="11">
+        <v>97156.65667</v>
+      </c>
+      <c r="C74" s="11">
+        <v>97.15665667</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="10">
+        <v>40179</v>
+      </c>
+      <c r="B75" s="11">
+        <v>97289.10838000001</v>
+      </c>
+      <c r="C75" s="11">
+        <v>97.28910838</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="10">
+        <v>40210</v>
+      </c>
+      <c r="B76" s="11">
+        <v>94671.4368</v>
+      </c>
+      <c r="C76" s="11">
+        <v>94.6714368</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="10">
+        <v>40238</v>
+      </c>
+      <c r="B77" s="11">
+        <v>110403.24314</v>
+      </c>
+      <c r="C77" s="11">
+        <v>110.40324314</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="10">
+        <v>40269</v>
+      </c>
+      <c r="B78" s="11">
+        <v>99640.66865000001</v>
+      </c>
+      <c r="C78" s="11">
+        <v>99.64066864999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="10">
+        <v>40299</v>
+      </c>
+      <c r="B79" s="11">
+        <v>110055.8161</v>
+      </c>
+      <c r="C79" s="11">
+        <v>110.0558161</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10">
+        <v>40330</v>
+      </c>
+      <c r="B80" s="11">
+        <v>94930.02968000001</v>
+      </c>
+      <c r="C80" s="11">
+        <v>94.93002968</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="10">
+        <v>40360</v>
+      </c>
+      <c r="B81" s="11">
+        <v>111079.15933</v>
+      </c>
+      <c r="C81" s="11">
+        <v>111.07915933</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="10">
+        <v>40391</v>
+      </c>
+      <c r="B82" s="11">
+        <v>112482.41951</v>
+      </c>
+      <c r="C82" s="11">
+        <v>112.48241951</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="10">
+        <v>40422</v>
+      </c>
+      <c r="B83" s="11">
+        <v>105503.17811</v>
+      </c>
+      <c r="C83" s="11">
+        <v>105.50317811</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10">
+        <v>40452</v>
+      </c>
+      <c r="B84" s="11">
+        <v>107765.02529</v>
+      </c>
+      <c r="C84" s="11">
+        <v>107.76502529</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10">
+        <v>40483</v>
+      </c>
+      <c r="B85" s="11">
+        <v>101364.03607</v>
+      </c>
+      <c r="C85" s="11">
+        <v>101.36403607</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="10">
         <v>40513</v>
       </c>
-      <c r="B36" s="8">
-        <v>2026.83</v>
-      </c>
-      <c r="C36" s="8">
-        <v>2026.83</v>
+      <c r="B86" s="11">
+        <v>109354.00938</v>
+      </c>
+      <c r="C86" s="11">
+        <v>109.35400938</v>
       </c>
     </row>
   </sheetData>
@@ -887,23 +1461,23 @@
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>0</Order>
         </MetadataSeries>
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>3</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>3</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>1</Order>
         </MetadataSeries>
       </MetaDataSeries>
@@ -913,7 +1487,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF14F9A3-04D0-4C50-B36F-077806578E47}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63C2ED57-3602-4009-AD2A-D14B7C38BB9B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>
